--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,35 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>2026-01-08T05:36:15.128640+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5a24f16c-a061-49a5-ad69-183124ec3690</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pão</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:36:17.112095+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9cbe6d97-ae27-4891-b936-0a24c6759b7e</t>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Queijo Mussarela</t>
+          <t>Hamburguer 130g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -489,42 +489,15 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0.13</v>
+      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-01-08T05:36:15.128640+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5a24f16c-a061-49a5-ad69-183124ec3690</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pão</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>un</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:36:17.112095+00:00</t>
+          <t>2026-01-08T05:36:36.506066+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,89 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>2026-01-08T05:36:36.506066+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9766ca21-65d2-4609-bc08-6fb9122449cb</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:38:14.301184+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5c2006fa-bfc0-4510-bdae-66f9bc7719b1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Presunto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:38:14.371525+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fe7c27b2-97b7-49aa-9c75-296e4d156b0a</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pão de Hambúrguer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:38:14.449333+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Ingredientes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Categorias" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Usuarios" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Produtos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Categorias" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Usuarios" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,22 +454,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>unit_weight</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>average_price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>units_per_package</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>unit_weight</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>average_price</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
         </is>
       </c>
     </row>
@@ -488,18 +489,18 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
       <c r="E2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2026-01-08T05:36:36.506066+00:00</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,15 +519,15 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2026-01-08T05:38:14.301184+00:00</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -545,15 +546,15 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2026-01-08T05:38:14.371525+00:00</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -571,17 +572,162 @@
           <t>un</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:38:14.449333+00:00</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>6</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6f5c5004-a898-4c80-a280-3a0a8537fb78</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Queijo Cheddar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:38:14.449333+00:00</t>
-        </is>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:28.793084+00:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0406e9d1-be76-4564-900a-a704691ba4ac</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saco Kraft P</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:40.755834+00:00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>49c43a0d-f578-42bd-a348-691fce748f89</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Papel Food</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:49.062869+00:00</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fa383b74-15da-4311-9c66-6b9dc92a643d</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sache Ketchup DAJUDA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:54.756934+00:00</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4de54816-b57d-476d-b758-4b8816f2cc8f</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sache Maionese DAJUDA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:42:01.991607+00:00</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +762,41 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sale_price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>photo_url</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cmv</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>profit_margin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>created_at</t>
         </is>
       </c>
@@ -623,119 +804,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6859a6d2-4ab9-4535-98ba-c09e7bfcfc27</t>
+          <t>09d108ce-3d3e-44a9-830e-7381a348f9ed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sanduíches</t>
+          <t>Hamburguer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-08T05:22:34.418991+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>22f82fb2-510a-45f1-a917-57a4267bd62a</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bebidas</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:22:34.514817+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6e568848-2b75-4d3f-9575-ad0c73da8143</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pizzas</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:22:34.515784+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>c6d46061-abce-43fd-ac53-2335ab166894</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Porções</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:22:34.516794+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>fa2aab84-670a-435d-9b49-f2bc54c56b50</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sobremesas</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:22:34.517863+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>7e2f2381-c469-484a-848e-e73bbf85870e</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Acompanhamentos</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:22:34.518901+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>cbc8b981-d55f-4338-b358-43b4ba989f4d</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sanduíches</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:22:34.419068+00:00</t>
+          <t>Pão, hambúrguer de 130g e 2x Cheddar.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>/uploads/products/3bf22915-d5c2-4bae-9bdc-f45c37e76c50.png</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 2.0, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:40:53.914804+00:00</t>
         </is>
       </c>
     </row>
@@ -745,6 +849,144 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6859a6d2-4ab9-4535-98ba-c09e7bfcfc27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sanduíches</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.418991+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>22f82fb2-510a-45f1-a917-57a4267bd62a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.514817+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6e568848-2b75-4d3f-9575-ad0c73da8143</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pizzas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.515784+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c6d46061-abce-43fd-ac53-2335ab166894</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Porções</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.516794+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fa2aab84-670a-435d-9b49-f2bc54c56b50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sobremesas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.517863+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7e2f2381-c469-484a-848e-e73bbf85870e</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acompanhamentos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.518901+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Ingredientes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Produtos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Categorias" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Usuarios" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Compras" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Categorias" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Usuarios" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +494,7 @@
         <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -574,7 +575,7 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.316666666666667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -605,7 +606,7 @@
         <v>0.014</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -632,7 +633,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -661,7 +662,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -690,7 +691,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -719,7 +720,7 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -854,6 +855,399 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>batch_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ingredient_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ingredient_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ingredient_unit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>unit_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>purchase_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2e24486f-6d4a-41bd-be87-e7812677c3d2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7b343ca8-db91-4ae2-af00-1547e3b83209</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fe7c27b2-97b7-49aa-9c75-296e4d156b0a</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pão de Hambúrguer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adee796f-75a0-4669-b4fe-ac0a8b9922d6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6f5c5004-a898-4c80-a280-3a0a8537fb78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Queijo Cheddar</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>b034f99e-2989-494f-ae53-e88f5d5386ef</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0406e9d1-be76-4564-900a-a704691ba4ac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Saco Kraft P</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>d7745482-3b8d-4dba-b506-4197f35368f4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49c43a0d-f578-42bd-a348-691fce748f89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Papel Food</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ecbc20e9-404b-4877-9bd6-3c813dec30be</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>fa383b74-15da-4311-9c66-6b9dc92a643d</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sache Ketchup DAJUDA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>89747066-b7dc-46d3-b28e-12c6d8453a68</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4de54816-b57d-476d-b758-4b8816f2cc8f</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sache Maionese DAJUDA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -986,7 +1380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -820,7 +820,7 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>217.1584798534799</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>-804.8269993894994</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,35 @@
       <c r="G10" t="n">
         <v>182</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>53ad54b1-3130-4ed1-9de8-8e36f2bc4624</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hamburguer Artesanal 130g</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:44:49.531461+00:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -855,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,6 +1263,52 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28143f13-2424-4047-a6a7-3e7f2c557647</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>f1da7453-d4ee-4bca-a61d-47399f58c318</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fornecedor Teste</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53ad54b1-3130-4ed1-9de8-8e36f2bc4624</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hamburguer Artesanal 130g</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:44:49.767037+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,48 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>2026-01-08T05:40:53.914804+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6b909cef-82a4-403a-8eda-159d496596fc</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hamburguer Simples</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Teste de cálculo com peso unitário</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sanduíches</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[{"ingredient_id": "53ad54b1-3130-4ed1-9de8-8e36f2bc4624", "quantity": 1.0, "item_type": "ingredient"}]</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>74</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:45:02.862348+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,60 +858,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 2.0, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
+          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>217.1584798534799</v>
+        <v>2.651627853479853</v>
       </c>
       <c r="I2" t="n">
-        <v>-804.8269993894994</v>
+        <v>88.95155061050062</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>2026-01-08T05:40:53.914804+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6b909cef-82a4-403a-8eda-159d496596fc</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hamburguer Simples</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Teste de cálculo com peso unitário</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sanduíches</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[{"ingredient_id": "53ad54b1-3130-4ed1-9de8-8e36f2bc4624", "quantity": 1.0, "item_type": "ingredient"}]</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>74</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:45:02.862348+00:00</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.651627853479853</v>
+        <v>8.300479853479855</v>
       </c>
       <c r="I2" t="n">
-        <v>88.95155061050062</v>
+        <v>65.41466727716727</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Compras" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Categorias" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Usuarios" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="AuditLogs" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -751,7 +752,7 @@
         <v>0.13</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -884,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1263,52 +1264,6 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>2026-01-08T00:00:00+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28143f13-2424-4047-a6a7-3e7f2c557647</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>f1da7453-d4ee-4bca-a61d-47399f58c318</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Fornecedor Teste</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>53ad54b1-3130-4ed1-9de8-8e36f2bc4624</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hamburguer Artesanal 130g</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I9" t="n">
-        <v>50</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:44:49.767037+00:00</t>
         </is>
       </c>
     </row>
@@ -1526,4 +1481,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>resource_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>resource_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>923ab645-df48-4b12-9e4c-f41ab7b17b15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:36:15.153695+00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01b12597-746c-4fbb-b18a-a6aebd2e766c</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pão</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:36:17.112810+00:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>00f8e7b8-5c08-405a-b8ea-4e87ac74cddf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:36:36.531040+00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5505f81f-9e35-4b93-9db4-f1b0ab287993</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:38:14.301833+00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>50974d3d-7cf3-4bfa-8eb8-7075bee60274</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Presunto</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:38:14.372004+00:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>b337bd38-dad8-4334-b61c-4cbebe0a7fd0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pão de Hambúrguer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:38:14.449888+00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>42387e00-3cb1-46c8-a194-ca7895035aa4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:40:53.938405+00:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ae9aa7e9-c55c-4b85-9684-ed100fac11fb</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:08.115210+00:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>b0bf1b70-16c2-45f0-a23a-2c19558858d1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Queijo Cheddar</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:28.793568+00:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dc03d8a5-6bd1-413b-a2de-1446f0922acf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Saco Kraft P</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:40.756400+00:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>b4616c73-794c-4101-aed9-c6f4e6ca5318</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Papel Food</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:49.063459+00:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>f7139e0f-cc63-493f-b623-4709edc10fe0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sache Ketchup DAJUDA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:41:54.757487+00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ed7e8238-415f-4319-a058-81ab700196c6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sache Maionese DAJUDA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:42:01.992238+00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4b98f7cc-105e-4d3f-8f9c-40bb3b7c78f3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sanduíches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:42:09.905670+00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>55a3b76d-bde7-4250-ba3e-b21751f9ba9c</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:43:06.833168+00:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>b3331f42-e247-4065-af80-9f363c15908a</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Lote de Supermecado BH</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:44:00.452587+00:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>{"items": 7}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24cd42e8-68bd-42ab-9885-7f9e51cd6863</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:44:16.648086+00:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>f5ff9dce-17ee-42de-b544-f2ffb8f5a797</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Hamburguer Artesanal 130g</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:44:49.532045+00:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5646ded5-4ef3-4586-b9ae-333eaac5c32f</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Lote de Fornecedor Teste</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:44:49.769467+00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>{"items": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16e93f6f-3bf5-47eb-a750-a3f5b87d2f7b</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hamburguer Simples</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:45:02.863021+00:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c5165d65-5892-4ce8-abfc-f681d6ebbe81</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:46:05.080251+00:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fea926cb-f744-4c65-af16-32b560d5e044</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:46:13.983749+00:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>d6d3500a-8490-4c8f-951c-90ebeab7d8b4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:46:39.735606+00:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1622babd-2456-4d58-a255-a2aa9a15fe58</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Hamburguer Simples</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:46:43.100371+00:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>bdc1ab85-cb2d-45ca-9ef5-b2c5adaab9f5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:49:33.077196+00:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4f38a4e8-af39-4524-924a-3b1d9a28ff3b</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lote de Fornecedor Teste</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:58:50.297319+00:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>{"items": 1}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -772,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,35 +798,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>sale_price</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>sale_price</t>
+          <t>photo_url</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>photo_url</t>
+          <t>recipe</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe</t>
+          <t>cmv</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cmv</t>
+          <t>profit_margin</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>profit_margin</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
@@ -848,27 +843,26 @@
           <t>Pão, hambúrguer de 130g e 2x Cheddar.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>24</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/uploads/products/3bf22915-d5c2-4bae-9bdc-f45c37e76c50.png</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/uploads/products/3bf22915-d5c2-4bae-9bdc-f45c37e76c50.png</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>8.300479853479855</v>
+      </c>
       <c r="H2" t="n">
-        <v>8.300479853479855</v>
-      </c>
-      <c r="I2" t="n">
         <v>65.41466727716727</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2026-01-08T05:40:53.914804+00:00</t>
         </is>
@@ -1416,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,6 +1469,33 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>$2b$12$Lt9U6H64EqwYjbXTg7U5h.w8OqaeV94vSxtbE1wt9TumGX0zy9QjG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0ca60eb5-1507-4a5f-9daf-27084f7bc796</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>teste_admin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:23:23.693119+00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$2b$12$fdED7Y14okDwCIC99wr2KeQO.6GbYwOpc9F.2G.dPrkvwfHPSgJh6</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -752,7 +752,7 @@
         <v>0.13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,52 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>d61f17be-ca74-4edc-a02d-c05e8484d885</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>59c44c48-9573-4338-b079-6e96ac279fd1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Supermecado Oba</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53ad54b1-3130-4ed1-9de8-8e36f2bc4624</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hamburguer Artesanal 130g</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>38</v>
+      </c>
+      <c r="I9" t="n">
+        <v>38</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-11-08T00:00:00+00:00</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2695,6 +2741,53 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16edad26-3420-4206-9389-d8b0e191b7c6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Lote de Supermecado Oba</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:24:18.582314+00:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>{"items": 1}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -495,7 +495,7 @@
         <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>30.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,6 +1304,52 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>2025-11-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>219ef6e4-390b-4eef-9a63-261459fb05dd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>076410f1-d38a-401b-8ecd-10c1171afd94</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Supermecado Souza</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>34</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-12-24T00:00:00+00:00</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2788,6 +2834,53 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0ff45769-3761-4b2a-bad3-613cad6f9da8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Lote de Supermecado Souza</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:24:43.262896+00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>{"items": 1}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -495,7 +495,7 @@
         <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>30.5</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,6 +1350,52 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>2025-12-24T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>37e8d74b-72e8-4cd4-9211-489f9c392d77</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>840ff295-0ce2-455c-8dbd-385987b9d8bf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chiquinho</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-05-08T00:00:00+00:00</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,6 +2927,53 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>9528ef19-08d2-480f-9037-078e6ba6190d</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Lote de Chiquinho</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:25:01.116914+00:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>{"items": 1}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -1548,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,6 +1634,33 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>$2b$12$fdED7Y14okDwCIC99wr2KeQO.6GbYwOpc9F.2G.dPrkvwfHPSgJh6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1d95e0aa-53aa-4472-8031-e1f2dc18ddad</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_admin_stock</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:40:41.565799+00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$2b$12$JAJgK7Pps8oJuH4zTwqJXuLv5A2dRk7quHKND/FojkIUq9ivpzdRS</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -1548,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1661,6 +1661,33 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>$2b$12$JAJgK7Pps8oJuH4zTwqJXuLv5A2dRk7quHKND/FojkIUq9ivpzdRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6d4c65ec-feb0-4f89-ab08-260f367bd38d</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admin_3fe36bbf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:41:43.006516+00:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$2b$12$2pYWIUQjwFuxy0.WymvetOpx1TPr.6qNOabAxjhKX9uuH3KxOONa6</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,26 @@
           <t>units_per_package</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stock_quantity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stock_min</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stock_max</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,6 +523,10 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,6 +554,10 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,6 +585,10 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -586,6 +618,10 @@
       <c r="G5" t="n">
         <v>6</v>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -615,6 +651,10 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -644,6 +684,10 @@
       <c r="G7" t="n">
         <v>50</v>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -673,6 +717,10 @@
       <c r="G8" t="n">
         <v>400</v>
       </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -702,6 +750,10 @@
       <c r="G9" t="n">
         <v>182</v>
       </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -731,6 +783,10 @@
       <c r="G10" t="n">
         <v>182</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -760,6 +816,47 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>54f6cd77-f3e1-4ee4-b439-c074e9d84d95</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tomate Teste</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:57:04.738692+00:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1606,7 +1703,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$2b$12$Lt9U6H64EqwYjbXTg7U5h.w8OqaeV94vSxtbE1wt9TumGX0zy9QjG</t>
+          <t>$2b$12$vSOvs9ypIjWRHs7x9bHPweods8gw3uWR15Nx313TsczlKOexzNRCS</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3028,6 +3125,49 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ab87b3d3-9b2e-4f2a-8ba7-d7aca59ab9ae</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tomate Teste</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:57:04.739355+00:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,26 +474,6 @@
           <t>units_per_package</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>stock_quantity</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>stock_min</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>stock_max</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -523,10 +503,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,10 +530,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -585,10 +557,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -618,10 +586,6 @@
       <c r="G5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -651,10 +615,6 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -684,10 +644,6 @@
       <c r="G7" t="n">
         <v>50</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -717,10 +673,6 @@
       <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -750,10 +702,6 @@
       <c r="G9" t="n">
         <v>182</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -783,10 +731,6 @@
       <c r="G10" t="n">
         <v>182</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -816,47 +760,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>54f6cd77-f3e1-4ee4-b439-c074e9d84d95</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Tomate Teste</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-01-08T13:57:04.738692+00:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1507,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,6 +1534,23 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>2026-01-08T05:22:34.518901+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dd4afaeb-6aad-42bd-a1fb-407e802f008e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Receitas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:08:58.606718+00:00</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3168,6 +3088,178 @@
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>67a8035f-0151-4809-9d10-887fd4e16243</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Receitas</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:08:58.607306+00:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7d6edb30-5381-4537-8d9a-ecc1ee5aaef4</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Maionese de Cenoura</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:09:18.445781+00:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>a2d0e023-897e-47c8-94dd-b1de621fa35e</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tomate Teste</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:09:33.077267+00:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>9a24bfe0-50a5-4db7-acf9-60bc81c1a5b3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Maionese de Cenoura</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:11:01.420517+00:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -772,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,6 +826,16 @@
           <t>created_at</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>is_insumo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -866,6 +876,53 @@
         <is>
           <t>2026-01-08T05:40:53.914804+00:00</t>
         </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0e1699bc-1e53-47f1-9098-22d4cb0a2b74</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X-Bacon Especial</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pão, hambúrguer de 130g e 2x Cheddar.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/uploads/products/3bf22915-d5c2-4bae-9bdc-f45c37e76c50.png</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8.387146520146521</v>
+      </c>
+      <c r="H3" t="n">
+        <v>65.05355616605615</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2026-01-08T15:02:32.153675+00:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3260,6 +3317,49 @@
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>d371b829-e06c-4e15-a8b7-5cd4c9746382</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>X-Bacon Especial</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-01-08T15:02:32.156764+00:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,26 @@
           <t>units_per_package</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stock_quantity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stock_min</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stock_max</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,6 +523,10 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,6 +554,10 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,6 +585,10 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -586,6 +618,10 @@
       <c r="G5" t="n">
         <v>6</v>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -615,6 +651,10 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -644,6 +684,10 @@
       <c r="G7" t="n">
         <v>50</v>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -673,6 +717,10 @@
       <c r="G8" t="n">
         <v>400</v>
       </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -702,6 +750,10 @@
       <c r="G9" t="n">
         <v>182</v>
       </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -731,6 +783,10 @@
       <c r="G10" t="n">
         <v>182</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -760,6 +816,49 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>e49d2b9f-1f71-4567-8b49-c9ebc7324220</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sonho de Valsa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-01-08T16:51:52.518619+00:00</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -936,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1453,6 +1552,52 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>2025-05-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3afb3cf4-be62-4702-bd0f-c35da9893900</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>c9be4f97-a342-4df0-9071-be01d10672e4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thais</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>e49d2b9f-1f71-4567-8b49-c9ebc7324220</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sonho de Valsa</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3360,6 +3505,96 @@
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>c1534ae1-80e8-4d7d-b01d-db8751858abd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sonho de Valsa</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-01-08T16:51:52.524214+00:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>28889aab-fffd-466e-aafc-e468f23a037a</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Lote de Thais</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2026-01-08T16:52:39.711048+00:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>{"items": 1}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -871,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,16 +925,6 @@
           <t>created_at</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>is_insumo</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -975,53 +965,6 @@
         <is>
           <t>2026-01-08T05:40:53.914804+00:00</t>
         </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0e1699bc-1e53-47f1-9098-22d4cb0a2b74</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X-Bacon Especial</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pão, hambúrguer de 130g e 2x Cheddar.</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>/uploads/products/3bf22915-d5c2-4bae-9bdc-f45c37e76c50.png</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>8.387146520146521</v>
-      </c>
-      <c r="H3" t="n">
-        <v>65.05355616605615</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2026-01-08T15:02:32.153675+00:00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3595,6 +3538,49 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>e39ff2cb-68a0-4b67-bf77-2b87cb05c9fa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>X-Bacon Especial</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:01:41.611170+00:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -871,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,6 +925,31 @@
           <t>created_at</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>is_divisible</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>is_insumo</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>order_steps</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>product_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -956,14 +981,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.300479853479855</v>
+        <v>8.387146520146521</v>
       </c>
       <c r="H2" t="n">
-        <v>65.41466727716727</v>
+        <v>65.05355616605615</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>2026-01-08T05:40:53.914804+00:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[{'name': 'ETAPA 1', 'description': 'Comece escolhendo o TAMANHO e a PROTEÍNA do seu sanduíche! 🍗🥩', 'step_type': 'single', 'options': [{'name': 'Simples de Vaca', 'price': 0.0, 'is_required': False}, {'name': 'Simples de Frango', 'price': 0.0, 'is_required': False}, {'name': 'Duplo de Vaca', 'price': 10.9, 'is_required': False}, {'name': 'Duplo de Frango', 'price': 10.9, 'is_required': False}], 'min_selections': 0, 'max_selections': 1}]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>produto</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3581,6 +3623,49 @@
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>36af31e6-1e13-49d9-ae20-72063486f8c5</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:26:54.088852+00:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -871,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,6 +950,11 @@
           <t>product_type</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1007,6 +1012,64 @@
         <is>
           <t>produto</t>
         </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>528c5832-1768-4c6f-8ce3-c14cee9dbfb0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Adicional de Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[{"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.596666666666667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.61904761904761</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:33:06.983444+00:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>produto</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>10001</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3666,6 +3729,49 @@
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3a851faa-a910-4713-9af0-63c824e29c60</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:33:06.983953+00:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acompanhamentos</t>
+          <t>Adicionais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1969,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3772,6 +3772,49 @@
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0741df9c-c547-4c44-90a7-48ddfd13d236</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Acompanhamentos → Adicionais</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:33:25.087773+00:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -1051,7 +1051,11 @@
           <t>2026-01-08T17:33:06.983444+00:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Adicionais</t>
+        </is>
+      </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
@@ -1969,7 +1973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3815,6 +3819,49 @@
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4db5c16c-deef-495e-93fd-efce0bdd999e</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:33:33.811712+00:00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -1877,7 +1877,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$2b$12$vSOvs9ypIjWRHs7x9bHPweods8gw3uWR15Nx313TsczlKOexzNRCS</t>
+          <t>$2b$12$wLpH10v/Q5Tferc8qJ7NkeQuKN080HSkNDGeGtJloRHJiJxR8hYG.</t>
         </is>
       </c>
     </row>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>stock_quantity</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>stock_quantity</t>
+          <t>stock_min</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>stock_min</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>stock_max</t>
         </is>
@@ -526,7 +521,6 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -557,7 +551,6 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -588,7 +581,6 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -621,7 +613,6 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -654,7 +645,6 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -687,7 +677,6 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -720,7 +709,6 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -753,7 +741,6 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -786,7 +773,6 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -819,7 +805,6 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -849,14 +834,13 @@
       <c r="G12" t="n">
         <v>50</v>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -871,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,193 +871,126 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>product_type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>sale_price</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>photo_url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>recipe</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cmv</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>profit_margin</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>is_insumo</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>is_divisible</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>order_steps</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>is_divisible</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>is_insumo</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>order_steps</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>product_type</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09d108ce-3d3e-44a9-830e-7381a348f9ed</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
+          <t>65478421-bdbc-47ab-8cf5-d45aa6e61877</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pão, hambúrguer de 130g e 2x Cheddar.</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>/uploads/products/3bf22915-d5c2-4bae-9bdc-f45c37e76c50.png</t>
-        </is>
-      </c>
+          <t>Hambúrguer Extra</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
+          <t>produto</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.387146520146521</v>
-      </c>
-      <c r="H2" t="n">
-        <v>65.05355616605615</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-08T05:40:53.914804+00:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="b">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[{'name': 'ETAPA 1', 'description': 'Comece escolhendo o TAMANHO e a PROTEÍNA do seu sanduíche! 🍗🥩', 'step_type': 'single', 'options': [{'name': 'Simples de Vaca', 'price': 0.0, 'is_required': False}, {'name': 'Simples de Frango', 'price': 0.0, 'is_required': False}, {'name': 'Duplo de Vaca', 'price': 10.9, 'is_required': False}, {'name': 'Duplo de Frango', 'price': 10.9, 'is_required': False}], 'min_selections': 0, 'max_selections': 1}]</t>
-        </is>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>produto</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>528c5832-1768-4c6f-8ce3-c14cee9dbfb0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hamburguer 130g</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Adicional de Hamburguer 130g</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[{"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3.596666666666667</v>
-      </c>
-      <c r="H3" t="n">
-        <v>48.61904761904761</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:33:06.983444+00:00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Adicionais</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>produto</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>10001</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:45:01.689753+00:00</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,6 +1722,23 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>2026-01-08T14:08:58.606718+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18a9b75c-3060-4279-b51a-6e71f4ab350a</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acompanhamentos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:27:55.986055+00:00</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,60 +1839,6 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>$2b$12$fdED7Y14okDwCIC99wr2KeQO.6GbYwOpc9F.2G.dPrkvwfHPSgJh6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1d95e0aa-53aa-4472-8031-e1f2dc18ddad</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test_admin_stock</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>observador</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2026-01-08T13:40:41.565799+00:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$2b$12$JAJgK7Pps8oJuH4zTwqJXuLv5A2dRk7quHKND/FojkIUq9ivpzdRS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6d4c65ec-feb0-4f89-ab08-260f367bd38d</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>admin_3fe36bbf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>observador</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2026-01-08T13:41:43.006516+00:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$2b$12$2pYWIUQjwFuxy0.WymvetOpx1TPr.6qNOabAxjhKX9uuH3KxOONa6</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,7 +1911,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>923ab645-df48-4b12-9e4c-f41ab7b17b15</t>
+          <t>66ab076e-ab4e-48d2-b0af-9f8bba59c011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2041,22 +1921,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ingredient</t>
+          <t>product</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Queijo Mussarela</t>
+          <t>Hambúrguer Extra</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Addad</t>
+          <t>teste_admin</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2066,7 +1946,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-01-08T05:36:15.153695+00:00</t>
+          <t>2026-01-08T17:45:01.703433+00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -2074,7 +1954,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01b12597-746c-4fbb-b18a-a6aebd2e766c</t>
+          <t>898edc98-9ec6-4e7a-a54e-73567dafdf28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2084,22 +1964,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ingredient</t>
+          <t>product</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pão</t>
+          <t>Bacon Extra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Addad</t>
+          <t>teste_admin</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2109,7 +1989,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-01-08T05:36:17.112810+00:00</t>
+          <t>2026-01-08T17:45:08.381212+00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -2117,7 +1997,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00f8e7b8-5c08-405a-b8ea-4e87ac74cddf</t>
+          <t>23f098d1-7a3d-474b-8e4f-60b0abf829c0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2127,22 +2007,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ingredient</t>
+          <t>product</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hamburguer 130g</t>
+          <t>X-Burger Completo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Addad</t>
+          <t>teste_admin</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2152,7 +2032,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-01-08T05:36:36.531040+00:00</t>
+          <t>2026-01-08T17:45:17.681912+00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -2160,42 +2040,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5505f81f-9e35-4b93-9db4-f1b0ab287993</t>
+          <t>f79a36ea-e844-4308-8201-a9f20c831f0d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CREATE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ingredient</t>
+          <t>product</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Queijo Mussarela</t>
+          <t>X-Burger Completo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Addad</t>
+          <t>teste_admin</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>media</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-01-08T05:38:14.301833+00:00</t>
+          <t>2026-01-08T17:45:27.744897+00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -2203,22 +2083,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>50974d3d-7cf3-4bfa-8eb8-7075bee60274</t>
+          <t>3656cecb-b1de-46ab-bd5b-8248361b0c01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CREATE</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ingredient</t>
+          <t>user</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Presunto</t>
+          <t>admin_3fe36bbf</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2233,12 +2113,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-01-08T05:38:14.372004+00:00</t>
+          <t>2026-01-08T18:23:24.200698+00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -2246,22 +2126,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b337bd38-dad8-4334-b61c-4cbebe0a7fd0</t>
+          <t>b4c454f6-814d-4b0f-99b1-e86bc3f17398</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CREATE</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ingredient</t>
+          <t>user</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pão de Hambúrguer</t>
+          <t>test_admin_stock</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2276,12 +2156,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-01-08T05:38:14.449888+00:00</t>
+          <t>2026-01-08T18:23:25.644630+00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -2289,12 +2169,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>42387e00-3cb1-46c8-a194-ca7895035aa4</t>
+          <t>1fe8586b-7025-48a2-b3a6-fad68bf9e079</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CREATE</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2304,7 +2184,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hamburguer</t>
+          <t>Bacon Extra</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2319,12 +2199,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-01-08T05:40:53.938405+00:00</t>
+          <t>2026-01-08T18:28:13.015574+00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -2332,12 +2212,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ae9aa7e9-c55c-4b85-9684-ed100fac11fb</t>
+          <t>145b3d92-05ab-4c29-abe6-2fd3a042a7d6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UPDATE</t>
+          <t>DELETE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2347,7 +2227,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hamburguer</t>
+          <t>X-Burger Completo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2362,1505 +2242,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-01-08T05:41:08.115210+00:00</t>
+          <t>2026-01-08T18:28:17.895764+00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>b0bf1b70-16c2-45f0-a23a-2c19558858d1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Queijo Cheddar</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:41:28.793568+00:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>dc03d8a5-6bd1-413b-a2de-1446f0922acf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Saco Kraft P</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:41:40.756400+00:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>b4616c73-794c-4101-aed9-c6f4e6ca5318</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Papel Food</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:41:49.063459+00:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>f7139e0f-cc63-493f-b623-4709edc10fe0</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sache Ketchup DAJUDA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:41:54.757487+00:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ed7e8238-415f-4319-a058-81ab700196c6</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sache Maionese DAJUDA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:42:01.992238+00:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4b98f7cc-105e-4d3f-8f9c-40bb3b7c78f3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Sanduíches</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:42:09.905670+00:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>55a3b76d-bde7-4250-ba3e-b21751f9ba9c</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:43:06.833168+00:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>b3331f42-e247-4065-af80-9f363c15908a</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>purchase</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Lote de Supermecado BH</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:44:00.452587+00:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>{"items": 7}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>24cd42e8-68bd-42ab-9885-7f9e51cd6863</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:44:16.648086+00:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>f5ff9dce-17ee-42de-b544-f2ffb8f5a797</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Hamburguer Artesanal 130g</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:44:49.532045+00:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>5646ded5-4ef3-4586-b9ae-333eaac5c32f</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>purchase</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Lote de Fornecedor Teste</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:44:49.769467+00:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>{"items": 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>16e93f6f-3bf5-47eb-a750-a3f5b87d2f7b</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Hamburguer Simples</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:45:02.863021+00:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>c5165d65-5892-4ce8-abfc-f681d6ebbe81</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:46:05.080251+00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>fea926cb-f744-4c65-af16-32b560d5e044</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:46:13.983749+00:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>d6d3500a-8490-4c8f-951c-90ebeab7d8b4</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:46:39.735606+00:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1622babd-2456-4d58-a255-a2aa9a15fe58</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Hamburguer Simples</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:46:43.100371+00:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>bdc1ab85-cb2d-45ca-9ef5-b2c5adaab9f5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:49:33.077196+00:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>4f38a4e8-af39-4524-924a-3b1d9a28ff3b</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>purchase</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Lote de Fornecedor Teste</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:58:50.297319+00:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>{"items": 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>16edad26-3420-4206-9389-d8b0e191b7c6</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>purchase</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Lote de Supermecado Oba</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2026-01-08T13:24:18.582314+00:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>{"items": 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>0ff45769-3761-4b2a-bad3-613cad6f9da8</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>purchase</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Lote de Supermecado Souza</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2026-01-08T13:24:43.262896+00:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>{"items": 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>9528ef19-08d2-480f-9037-078e6ba6190d</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>purchase</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Lote de Chiquinho</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2026-01-08T13:25:01.116914+00:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>{"items": 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ab87b3d3-9b2e-4f2a-8ba7-d7aca59ab9ae</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Tomate Teste</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2026-01-08T13:57:04.739355+00:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>67a8035f-0151-4809-9d10-887fd4e16243</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Receitas</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2026-01-08T14:08:58.607306+00:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>7d6edb30-5381-4537-8d9a-ecc1ee5aaef4</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Maionese de Cenoura</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2026-01-08T14:09:18.445781+00:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>a2d0e023-897e-47c8-94dd-b1de621fa35e</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Tomate Teste</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2026-01-08T14:09:33.077267+00:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>9a24bfe0-50a5-4db7-acf9-60bc81c1a5b3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Maionese de Cenoura</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2026-01-08T14:11:01.420517+00:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>d371b829-e06c-4e15-a8b7-5cd4c9746382</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>X-Bacon Especial</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2026-01-08T15:02:32.156764+00:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>c1534ae1-80e8-4d7d-b01d-db8751858abd</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ingredient</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Sonho de Valsa</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2026-01-08T16:51:52.524214+00:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>28889aab-fffd-466e-aafc-e468f23a037a</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>purchase</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Lote de Thais</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2026-01-08T16:52:39.711048+00:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>{"items": 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>e39ff2cb-68a0-4b67-bf77-2b87cb05c9fa</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>X-Bacon Especial</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:01:41.611170+00:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>36af31e6-1e13-49d9-ae20-72063486f8c5</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Hamburguer</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:26:54.088852+00:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>3a851faa-a910-4713-9af0-63c824e29c60</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Hamburguer 130g</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:33:06.983953+00:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>0741df9c-c547-4c44-90a7-48ddfd13d236</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Acompanhamentos → Adicionais</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:33:25.087773+00:00</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>4db5c16c-deef-495e-93fd-efce0bdd999e</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Hamburguer 130g</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:33:33.811712+00:00</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -855,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,29 +955,37 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Adicionais</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>produto</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>9.9</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>/uploads/products/b364f533-f162-4f2e-8c5a-99a16c5958db.png</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}]</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.596666666666668</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>63.67003367003367</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -990,6 +998,67 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>2026-01-08T17:45:01.689753+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>142f1e09-b221-40d4-bc23-501044a07f94</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Burger</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sanduíches</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>/uploads/products/f4b17a8e-e5df-4a8f-86e7-8a355d5e719e.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>8.387146520146523</v>
+      </c>
+      <c r="K3" t="n">
+        <v>65.05355616605615</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[{'name': 'ETAPA 1', 'calculation_type': 'soma', 'min_selections': 0, 'max_selections': 0, 'items': [{'product_id': '65478421-bdbc-47ab-8cf5-d45aa6e61877', 'product_name': 'Hambúrguer Extra', 'price_override': 9.9}]}]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:31:04.670660+00:00</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2252,6 +2321,221 @@
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4c1eda5c-b98c-4d22-8441-92bc2a85f744</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hambúrguer Extra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:28:40.191233+00:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>94233f22-7fd4-427f-8cba-41e2956f1280</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hambúrguer Extra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:29:02.405365+00:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>422af409-56e8-43df-b418-beea032c4397</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hambúrguer Extra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:29:28.192367+00:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>644a4261-ccc8-4ff7-ac50-2d449052dd0c</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Burger</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:31:04.671216+00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c6a5e37f-6916-45c0-be80-20182921d4a8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Burger</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:31:47.352489+00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -1650,7 +1650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,6 +1808,23 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>2026-01-08T18:27:55.986055+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a9bb53ca-6678-4210-8d7e-87f6515367bb</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-01-08T19:08:05.774980+00:00</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2536,6 +2553,49 @@
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dbeba2d6-28e6-48b6-9012-5984543fed6c</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-08T19:08:05.778710+00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -855,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,62 +881,67 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>product_type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sale_price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>photo_url</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cmv</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>profit_margin</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>is_insumo</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>is_divisible</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>order_steps</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>product_type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sale_price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>photo_url</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>recipe</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>cmv</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>profit_margin</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>is_insumo</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>is_divisible</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>order_steps</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>linked_ingredient_id</t>
         </is>
       </c>
     </row>
@@ -954,52 +959,53 @@
           <t>Hambúrguer Extra</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adicionais</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adicionais</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>produto</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="F2" t="n">
         <v>9.9</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>/uploads/products/b364f533-f162-4f2e-8c5a-99a16c5958db.png</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>/uploads/products/b364f533-f162-4f2e-8c5a-99a16c5958db.png</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>[{"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}]</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>3.596666666666668</v>
+      </c>
       <c r="J2" t="n">
-        <v>3.596666666666668</v>
-      </c>
-      <c r="K2" t="n">
         <v>63.67003367003367</v>
       </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
         <v>0</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>2026-01-08T17:45:01.689753+00:00</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1015,52 +1021,119 @@
           <t>Burger</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sanduíches</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sanduíches</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>combo</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>24</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>/uploads/products/f4b17a8e-e5df-4a8f-86e7-8a355d5e719e.png</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>/uploads/products/f4b17a8e-e5df-4a8f-86e7-8a355d5e719e.png</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
         </is>
       </c>
+      <c r="I3" t="n">
+        <v>8.387146520146523</v>
+      </c>
       <c r="J3" t="n">
-        <v>8.387146520146523</v>
-      </c>
-      <c r="K3" t="n">
         <v>65.05355616605615</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="b">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:31:04.670660+00:00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>166ef69b-9089-4550-a37b-b80780656b08</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Coca Cola 310ml</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>produto</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>/uploads/products/f60b4f58-0b2b-46c3-baca-403d2a51f4a9.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[{'name': 'ETAPA 1', 'calculation_type': 'soma', 'min_selections': 0, 'max_selections': 0, 'items': [{'product_id': '65478421-bdbc-47ab-8cf5-d45aa6e61877', 'product_name': 'Hambúrguer Extra', 'price_override': 9.9}]}]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:31:04.670660+00:00</t>
-        </is>
-      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:51:24.012752+00:00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Refrigerante de Cola 310ml</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1650,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1678,7 +1751,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6859a6d2-4ab9-4535-98ba-c09e7bfcfc27</t>
+          <t>068e0f57-914e-49e0-a0aa-a115cb85760b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1688,14 +1761,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-08T05:22:34.418991+00:00</t>
+          <t>2026-01-08T19:33:52.339491+00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22f82fb2-510a-45f1-a917-57a4267bd62a</t>
+          <t>de20b7d4-6740-4784-a59b-046eb8448101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1705,14 +1778,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-08T05:22:34.514817+00:00</t>
+          <t>2026-01-08T19:33:52.446459+00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6e568848-2b75-4d3f-9575-ad0c73da8143</t>
+          <t>48aa8d30-99d9-4a70-a720-78faf7d9317f</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1722,14 +1795,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-08T05:22:34.515784+00:00</t>
+          <t>2026-01-08T19:33:52.447698+00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>c6d46061-abce-43fd-ac53-2335ab166894</t>
+          <t>17d3990d-750f-4ed6-b4c5-eb403ec658bd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1739,14 +1812,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-08T05:22:34.516794+00:00</t>
+          <t>2026-01-08T19:33:52.448485+00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fa2aab84-670a-435d-9b49-f2bc54c56b50</t>
+          <t>df4aaaac-b64d-49a6-a31b-cc63109b37b1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1756,75 +1829,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-08T05:22:34.517863+00:00</t>
+          <t>2026-01-08T19:33:52.449431+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7e2f2381-c469-484a-848e-e73bbf85870e</t>
+          <t>052aa989-8ad4-4dd9-8614-74b3bd09dbc3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adicionais</t>
+          <t>Acompanhamentos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-08T05:22:34.518901+00:00</t>
+          <t>2026-01-08T19:33:52.450453+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dd4afaeb-6aad-42bd-a1fb-407e802f008e</t>
+          <t>aecb4c71-784e-469c-8627-ac7613a7d910</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Receitas</t>
+          <t>Receita</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-08T14:08:58.606718+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18a9b75c-3060-4279-b51a-6e71f4ab350a</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Acompanhamentos</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:27:55.986055+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>a9bb53ca-6678-4210-8d7e-87f6515367bb</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Receita</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2026-01-08T19:08:05.774980+00:00</t>
+          <t>2026-01-08T19:33:53.199022+00:00</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1997,7 +2036,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>66ab076e-ab4e-48d2-b0af-9f8bba59c011</t>
+          <t>2831dad4-5313-4515-8fdd-8a96e7e80891</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2007,22 +2046,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>category</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hambúrguer Extra</t>
+          <t>Receita</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>teste_admin</t>
+          <t>Addad</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2032,7 +2071,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-01-08T17:45:01.703433+00:00</t>
+          <t>2026-01-08T19:33:53.199744+00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -2040,7 +2079,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>898edc98-9ec6-4e7a-a54e-73567dafdf28</t>
+          <t>cb14281b-f3dd-4676-b05a-ddf34b40ad62</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2055,17 +2094,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bacon Extra</t>
+          <t>Coca Cola 310ml</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>teste_admin</t>
+          <t>Addad</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2075,526 +2114,10 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-01-08T17:45:08.381212+00:00</t>
+          <t>2026-01-08T20:51:24.014767+00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23f098d1-7a3d-474b-8e4f-60b0abf829c0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X-Burger Completo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>teste_admin</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:45:17.681912+00:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>f79a36ea-e844-4308-8201-a9f20c831f0d</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X-Burger Completo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>c4daedbe-f9c5-452f-bb9c-cff62654e3d8</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>teste_admin</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2026-01-08T17:45:27.744897+00:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3656cecb-b1de-46ab-bd5b-8248361b0c01</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>admin_3fe36bbf</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:23:24.200698+00:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>b4c454f6-814d-4b0f-99b1-e86bc3f17398</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>test_admin_stock</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:23:25.644630+00:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1fe8586b-7025-48a2-b3a6-fad68bf9e079</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Bacon Extra</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:28:13.015574+00:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>145b3d92-05ab-4c29-abe6-2fd3a042a7d6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>X-Burger Completo</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>alta</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:28:17.895764+00:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4c1eda5c-b98c-4d22-8441-92bc2a85f744</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Hambúrguer Extra</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:28:40.191233+00:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>94233f22-7fd4-427f-8cba-41e2956f1280</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Hambúrguer Extra</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:29:02.405365+00:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>422af409-56e8-43df-b418-beea032c4397</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Hambúrguer Extra</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:29:28.192367+00:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>644a4261-ccc8-4ff7-ac50-2d449052dd0c</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Burger</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:31:04.671216+00:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>c6a5e37f-6916-45c0-be80-20182921d4a8</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>UPDATE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Burger</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2026-01-08T18:31:47.352489+00:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>dbeba2d6-28e6-48b6-9012-5984543fed6c</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CREATE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Receita</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Addad</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>baixa</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2026-01-08T19:08:05.778710+00:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -855,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,6 +1134,68 @@
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c461d131-0a7a-420d-9198-f0ae24ca8133</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Açaí 500ml</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sobremesas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>/uploads/products/96bd8976-2eb9-48c0-88a7-e7993602191a.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:51:54.658744+00:00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1978,7 +2040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,6 +2181,49 @@
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1b8bb2a4-df35-45dd-8b06-06e3feade92e</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Açaí 500ml</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:51:54.659400+00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>stock_quantity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>units_per_package</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>stock_quantity</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -510,14 +510,16 @@
         <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>27.66666666666667</v>
+        <v>40.75</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>2026-01-08T05:36:36.506066+00:00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -607,10 +609,10 @@
           <t>2026-01-08T05:38:14.449333+00:00</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
@@ -671,10 +673,10 @@
           <t>2026-01-08T05:41:40.755834+00:00</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>50</v>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -703,10 +705,10 @@
           <t>2026-01-08T05:41:49.062869+00:00</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>400</v>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -735,10 +737,10 @@
           <t>2026-01-08T05:41:54.756934+00:00</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
         <v>182</v>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
     </row>
@@ -767,10 +769,10 @@
           <t>2026-01-08T05:42:01.991607+00:00</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
         <v>182</v>
       </c>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -832,10 +834,10 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>50</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -855,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,11 +941,6 @@
           <t>description</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>linked_ingredient_id</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1005,7 +1002,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1067,7 +1063,6 @@
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1133,7 +1128,6 @@
           <t>Refrigerante de Cola 310ml</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1195,7 +1189,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1208,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1771,6 +1764,52 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ee07e12e-388b-488e-accc-83ad40a64172</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1e337d9b-07ca-4fee-a284-0370f0cfd18c</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Murilo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>80</v>
+      </c>
+      <c r="I13" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,6 +2263,53 @@
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>b28afa45-e2a7-489f-bac7-49a7ce6c70b4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Lote de Murilo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-09T12:41:20.337951+00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>{"items": 1}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,32 +461,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>units_per_package</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>average_price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stock_quantity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stock_min</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stock_max</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>stock_quantity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>units_per_package</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>stock_min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>stock_max</t>
         </is>
       </c>
     </row>
@@ -510,19 +515,30 @@
         <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>40.75</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>2026-01-08T05:36:36.506066+00:00</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -540,19 +556,34 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2026-01-08T05:38:14.301184+00:00</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,19 +601,34 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>2026-01-08T05:38:14.371525+00:00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,7 +638,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pão de Hambúrguer</t>
+          <t>Pão</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,21 +646,34 @@
           <t>un</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.316666666666667</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>2026-01-08T05:38:14.449333+00:00</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -636,17 +695,30 @@
         <v>0.014</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>94</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>2026-01-08T05:41:28.793084+00:00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -664,21 +736,34 @@
           <t>un</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.57</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Embalagem</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>2026-01-08T05:41:40.755834+00:00</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>50</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -696,21 +781,34 @@
           <t>un</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>2026-01-08T05:41:49.062869+00:00</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -728,21 +826,34 @@
           <t>un</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.09340659340659341</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Embalagem</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>2026-01-08T05:41:54.756934+00:00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>182</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -760,63 +871,89 @@
           <t>un</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.09340659340659341</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Embalagem</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>2026-01-08T05:42:01.991607+00:00</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>182</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>53ad54b1-3130-4ed1-9de8-8e36f2bc4624</t>
+          <t>e49d2b9f-1f71-4567-8b49-c9ebc7324220</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hamburguer Artesanal 130g</t>
+          <t>Sonho de Valsa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-01-08T05:44:49.531461+00:00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2026-01-08T16:51:52.518619+00:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>e49d2b9f-1f71-4567-8b49-c9ebc7324220</t>
+          <t>560eb5c1-7264-45a6-9488-01ba9ca08d13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sonho de Valsa</t>
+          <t>FARDO - Coca Cola 310ml</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -826,24 +963,115 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1.058</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-01-08T16:51:52.518619+00:00</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.900128205128205</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:13:54.692300+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>a4c5da9d-dc0d-487f-96c2-bf38eb82ec55</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Zero 310ml</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.900833333333333</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:30.853170+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>869e81e6-1514-4ed4-bfcf-a8c8200c706f</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FARDO - Sprite 310ml</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.900833333333333</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:36:11.961456+00:00</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -883,62 +1111,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>category</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>product_type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>sale_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>photo_url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>recipe</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cmv</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>profit_margin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>is_insumo</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>is_divisible</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>order_steps</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
         </is>
       </c>
     </row>
@@ -948,60 +1176,66 @@
           <t>65478421-bdbc-47ab-8cf5-d45aa6e61877</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>10001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hambúrguer Extra</t>
+          <t>ADC - Hambúrguer 130g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Adicional de Hamb. 130g </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adicionais</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>produto</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.9</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>/uploads/products/b364f533-f162-4f2e-8c5a-99a16c5958db.png</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>[{"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}]</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.596666666666668</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>63.67003367003367</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2026-01-08T17:45:01.689753+00:00</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1009,60 +1243,66 @@
           <t>142f1e09-b221-40d4-bc23-501044a07f94</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>10002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Burger</t>
+          <t>Hamburguer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Pão, hambúrguer de 130g e 2x Cheddar.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Sanduíches</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>combo</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>24</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>/uploads/products/f4b17a8e-e5df-4a8f-86e7-8a355d5e719e.png</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>/uploads/products/4aa9bf3d-da4b-47e5-ace6-a00055e98947.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>8.387146520146523</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>65.05355616605615</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>[{"name": "ETAPA 1", "calculation_type": "soma", "min_selections": 0, "max_selections": 0, "items": [{"product_id": "65478421-bdbc-47ab-8cf5-d45aa6e61877", "product_name": "Hamb\u00farguer Extra", "price_override": 9.9}]}]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>2026-01-08T18:31:04.670660+00:00</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1070,8 +1310,10 @@
           <t>166ef69b-9089-4550-a37b-b80780656b08</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>10003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10003</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1080,115 +1322,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Refrigerante de Cola 310ml</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Bebidas</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>produto</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>/uploads/products/f60b4f58-0b2b-46c3-baca-403d2a51f4a9.png</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[{"ingredient_id": "560eb5c1-7264-45a6-9488-01ba9ca08d13", "quantity": 1.0, "item_type": "ingredient"}]</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2026-01-08T20:51:24.012752+00:00</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Refrigerante de Cola 310ml</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>c461d131-0a7a-420d-9198-f0ae24ca8133</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10004</v>
+          <t>7329016d-17d4-4b51-bda0-ddcf57d1db59</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Açaí 500ml</t>
+          <t>Cheddar Burger</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sobremesas</t>
+          <t>Pão, Maionese de Cenoura, hambúrguer de 130g, Bacon e 2x Cheddar.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sanduíches</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>combo</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>/uploads/products/96bd8976-2eb9-48c0-88a7-e7993602191a.png</t>
-        </is>
+      <c r="G5" t="n">
+        <v>29</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>/uploads/products/276ca5f6-d0ae-490c-85e4-343814886d70.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[{"ingredient_id": "fe7c27b2-97b7-49aa-9c75-296e4d156b0a", "quantity": 1.0, "item_type": "ingredient"}, {"ingredient_id": "90fcd7d2-7030-4c78-8330-f40d80e3c073", "quantity": 0.13, "item_type": "ingredient"}, {"ingredient_id": "6f5c5004-a898-4c80-a280-3a0a8537fb78", "quantity": 0.028, "item_type": "ingredient"}, {"ingredient_id": "0406e9d1-be76-4564-900a-a704691ba4ac", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "49c43a0d-f578-42bd-a348-691fce748f89", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "fa383b74-15da-4311-9c66-6b9dc92a643d", "quantity": 1.0, "item_type": "packaging"}, {"ingredient_id": "4de54816-b57d-476d-b758-4b8816f2cc8f", "quantity": 1.0, "item_type": "packaging"}]</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>8.387146520146523</v>
+      </c>
+      <c r="K5" t="n">
+        <v>71.07880510294302</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2026-01-08T20:51:54.658744+00:00</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:39:56.670719+00:00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1201,7 +1449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1724,7 +1972,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3afb3cf4-be62-4702-bd0f-c35da9893900</t>
+          <t>ececcf03-eca1-4c36-a48a-6f6f36c632da</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1734,7 +1982,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Supermecado BH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1770,44 +2018,182 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ee07e12e-388b-488e-accc-83ad40a64172</t>
+          <t>8087b0b4-149c-450f-8023-9f5a3b4d01a5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1e337d9b-07ca-4fee-a284-0370f0cfd18c</t>
+          <t>283d3d75-768e-48f8-a051-1a797c1a1e98</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Murilo</t>
+          <t>Supermecado BH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+          <t>560eb5c1-7264-45a6-9488-01ba9ca08d13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hamburguer 130g</t>
+          <t>FARDO - Coca Cola 310ml</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>un</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>80</v>
+        <v>17.35</v>
       </c>
       <c r="I13" t="n">
-        <v>80</v>
+        <v>17.35</v>
       </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25d7c20e-09a8-4db4-98c1-3ca692dc6725</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6f1d7218-6c7c-48f3-add6-91dbdf944e05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>560eb5c1-7264-45a6-9488-01ba9ca08d13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Cola 310ml</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>208.86</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>42bed7d2-b870-4814-a9c3-4d14e46de4d8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6f1d7218-6c7c-48f3-add6-91dbdf944e05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>a4c5da9d-dc0d-487f-96c2-bf38eb82ec55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Zero 310ml</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>104.43</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>93757443-f209-4e38-b279-23c68f0551ad</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6f1d7218-6c7c-48f3-add6-91dbdf944e05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>869e81e6-1514-4ed4-bfcf-a8c8200c706f</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FARDO - Sprite 310ml</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>2026-01-09T00:00:00+00:00</t>
         </is>
@@ -1824,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1852,7 +2238,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>068e0f57-914e-49e0-a0aa-a115cb85760b</t>
+          <t>6859a6d2-4ab9-4535-98ba-c09e7bfcfc27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1862,14 +2248,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-08T19:33:52.339491+00:00</t>
+          <t>2026-01-08T05:22:34.418991+00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>de20b7d4-6740-4784-a59b-046eb8448101</t>
+          <t>22f82fb2-510a-45f1-a917-57a4267bd62a</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1879,14 +2265,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-08T19:33:52.446459+00:00</t>
+          <t>2026-01-08T05:22:34.514817+00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>48aa8d30-99d9-4a70-a720-78faf7d9317f</t>
+          <t>6e568848-2b75-4d3f-9575-ad0c73da8143</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1896,14 +2282,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-08T19:33:52.447698+00:00</t>
+          <t>2026-01-08T05:22:34.515784+00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17d3990d-750f-4ed6-b4c5-eb403ec658bd</t>
+          <t>c6d46061-abce-43fd-ac53-2335ab166894</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1913,14 +2299,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-08T19:33:52.448485+00:00</t>
+          <t>2026-01-08T05:22:34.516794+00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>df4aaaac-b64d-49a6-a31b-cc63109b37b1</t>
+          <t>fa2aab84-670a-435d-9b49-f2bc54c56b50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1930,41 +2316,109 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-08T19:33:52.449431+00:00</t>
+          <t>2026-01-08T05:22:34.517863+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>052aa989-8ad4-4dd9-8614-74b3bd09dbc3</t>
+          <t>7e2f2381-c469-484a-848e-e73bbf85870e</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acompanhamentos</t>
+          <t>Adicionais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-08T19:33:52.450453+00:00</t>
+          <t>2026-01-08T05:22:34.518901+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>aecb4c71-784e-469c-8627-ac7613a7d910</t>
+          <t>dd4afaeb-6aad-42bd-a1fb-407e802f008e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Receitas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:08:58.606718+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18a9b75c-3060-4279-b51a-6e71f4ab350a</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acompanhamentos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:27:55.986055+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>98619d04-396a-42dd-8a3f-964d46e8ca1b</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Receita</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2026-01-08T19:33:53.199022+00:00</t>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-01-09T13:46:07.694079+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>36b3a47e-b3c1-4fb7-87b5-0adb15a44c82</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:37.618491+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9b5ecb3f-bbce-4a43-94b0-a54be21a05fe</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Embalagem</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:42.852777+00:00</t>
         </is>
       </c>
     </row>
@@ -1979,7 +2433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2454,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>role</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2481,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Addad@123</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>proprietario</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2026-01-08T05:22:08.501819+00:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$2b$12$wLpH10v/Q5Tferc8qJ7NkeQuKN080HSkNDGeGtJloRHJiJxR8hYG.</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2508,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Admin123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>observador</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2026-01-08T13:23:23.693119+00:00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$2b$12$fdED7Y14okDwCIC99wr2KeQO.6GbYwOpc9F.2G.dPrkvwfHPSgJh6</t>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6eaf6cbe-b6e6-4c12-9ed3-663a1981c51f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_admin_905899</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:58:19.359122+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8bbbc174-2515-4c76-9bff-1e79a24a1158</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>demo123</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-01-09T13:05:16.633991+00:00</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2645,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2831dad4-5313-4515-8fdd-8a96e7e80891</t>
+          <t>2104f2f5-b121-49db-bcfa-54e90cd23844</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2147,12 +2655,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>ingredient</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Receita</t>
+          <t>Teste Ingrediente</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2172,7 +2680,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-01-08T19:33:53.199744+00:00</t>
+          <t>2026-01-09T14:16:46.544096+00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -2180,7 +2688,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cb14281b-f3dd-4676-b05a-ddf34b40ad62</t>
+          <t>c3049d5c-8658-4aec-9832-9285657f516e</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2190,12 +2698,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>purchase</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Coca Cola 310ml</t>
+          <t>Lote de Fornecedor Teste</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2215,30 +2723,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-01-08T20:51:24.014767+00:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>2026-01-09T14:16:57.399523+00:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{'items': 1}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1b8bb2a4-df35-45dd-8b06-06e3feade92e</t>
+          <t>79e7e1f8-9571-402e-8872-9ca35308f7f3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CREATE</t>
+          <t>UPDATE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>ingredient</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Açaí 500ml</t>
+          <t>FARDO - Coca Cola 310ml</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2253,12 +2765,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>baixa</t>
+          <t>media</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-01-08T20:51:54.659400+00:00</t>
+          <t>2026-01-09T14:18:51.273925+00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -2266,49 +2778,1695 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b28afa45-e2a7-489f-bac7-49a7ce6c70b4</t>
+          <t>9fa853f3-cb70-4ed7-ac4f-ded252710153</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Cola 310ml</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:18:59.723697+00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c439a466-fd7f-457a-9b78-dbed9abb4f1b</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Coca Cola 310ml</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:19:11.043754+00:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>63b3a983-55ab-4ef9-a003-dd13e36c789e</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Açaí 500ml</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:19:36.522537+00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8354fc42-8eae-466b-bdfd-8cefa62d6b08</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hamburguer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:20:18.371703+00:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>b57f9161-cc3c-4511-a072-61f57f2427a0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ADC - Hambúrguer 130g</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:20:45.501985+00:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>487adbfe-89a1-4f4e-9d88-316c3160f315</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>CREATE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Teste Rapido 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:24:34.174377+00:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c6445141-5aaf-4721-bcb2-c38f9b150f98</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Teste Rapido 2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:24:34.198413+00:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>bb018103-9d5b-4f8f-a38a-d6a1ac2dbac4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Teste Rapido 3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:24:34.222226+00:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>84247a3b-438d-455a-96ad-fe3f2418d0a5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Teste Rapido 4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:24:34.246479+00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4c4a732c-2d03-4ab2-8bdc-8982693816ba</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Teste Rapido 5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:24:34.268387+00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>a771b2a6-5e33-4a3e-b8c3-b92882bd98e3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Teste Rapido 5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:28:35.259231+00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>c174b4d7-5852-49ea-8d68-0ef1a8652f73</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Teste Rapido 4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:28:37.056345+00:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4839b1c7-0426-4084-8902-605756252c42</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Teste Rapido 3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:28:39.261573+00:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>074d3fb1-077e-4fb1-be52-c9b813bb8451</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Teste Rapido 2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:28:41.706757+00:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5a66d08a-842b-42da-bbc0-31e5b042840e</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Teste Rapido 1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:28:44.091012+00:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8b203590-3bc9-45b9-9e52-24941deae419</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>purchase</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Lote de Murilo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Lote de Supermecado BH</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Addad</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:29:17.170248+00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>{'items': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>37ffdc4a-48d6-4b57-8a92-cd0ababf413a</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Lote de Supermecado BH</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:29:27.377110+00:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>{'items': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8e404ccb-b37d-45d1-976c-76cc5db41699</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Cola 310ml</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:31:35.758825+00:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>110f3ded-907a-4d61-8126-2847f4c70c1c</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lote de Supermecado BH</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:07.100021+00:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>{'items': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>55590078-78b2-4921-9abb-739365af493b</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Zero 310ml</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>baixa</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2026-01-09T12:41:20.337951+00:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>{"items": 1}</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:30.856182+00:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>d236e120-9fd1-4866-afa1-f7f1a90584da</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:37.621086+00:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>84273b5c-57f6-4450-984b-bb5c7325d240</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Zero 310ml</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:43.001612+00:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8057dcb4-527d-41e7-a6f8-4eb6458aef1c</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Cola 310ml</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:47.079159+00:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c08faeed-89d6-454e-aa0c-142fcff50afe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Hamburguer Artesanal 130g</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:16.600937+00:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3fef18a1-577d-40fb-9449-3afed96cf0b9</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:22.003330+00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7f295a16-d0ab-41ab-b749-7831f1ffdb1c</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Papel Food</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:26.883472+00:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>eb9a20a7-81ab-4c3b-bef0-0706ae22c734</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Embalagem</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:42.855808+00:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>f056c921-2e82-4e25-b037-6b07dec66d3c</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Saco Kraft P</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:51.459225+00:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3402073a-bd21-4f94-beac-fd4a31374097</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sache Maionese DAJUDA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:59.655719+00:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>6bb8a454-f505-4f8b-99be-c1a546459f1a</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sache Ketchup DAJUDA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:34:04.381115+00:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>a722f043-68d2-44d8-b12b-c127fe997ba4</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Pão</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:34:16.878760+00:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>158987b7-8077-45e9-81cc-8c9b28aacfd1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Pão</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:34:22.628574+00:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bfe97201-8a81-478f-a774-ac5a73902032</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Presunto</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:35:31.128650+00:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0b2a21c8-9a1a-4cea-8a41-26c5264815e8</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:35:38.173885+00:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>14d3b31b-4da4-4be0-a6bb-aded6aa041f0</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Queijo Cheddar</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:35:42.598500+00:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7c37dd2d-9a05-4c82-a945-ad59b826fa13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UPDATE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sonho de Valsa</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:35:46.807102+00:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22874193-2963-4b04-8418-86a55fbb4b48</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ingredient</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FARDO - Sprite 310ml</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:36:11.964421+00:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>8d78a6bc-d6f7-4a52-a0c7-1c15a2965489</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>purchase</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Lote de Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:38:20.480824+00:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>{'items': 3}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4ae54d35-0b7f-4ff2-9fb7-2e0f85159373</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CREATE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Cheddar Burger</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>baixa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:39:56.674170+00:00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data_backup/nucleo_backup.xlsx
+++ b/backend/data_backup/nucleo_backup.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Ingredientes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Compras" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Usuarios" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Categorias" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,73 +954,6 @@
       </c>
       <c r="S7" t="n">
         <v>6.989999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>db3e5b10-e08e-4fd1-b536-cbee8abc2e34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10008</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>RECEITA TESTE - Molho Especial Atualizado</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Molho especial atualizado</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>receita</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2026-01-10T17:36:18.360090+00:00</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>un</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2685,4 +2621,1713 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>batch_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ingredient_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ingredient_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ingredient_unit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>unit_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>purchase_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>d61f17be-ca74-4edc-a02d-c05e8484d885</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>59c44c48-9573-4338-b079-6e96ac279fd1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Supermecado Oba</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53ad54b1-3130-4ed1-9de8-8e36f2bc4624</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hamburguer Artesanal 130g</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-11-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>219ef6e4-390b-4eef-9a63-261459fb05dd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>076410f1-d38a-401b-8ecd-10c1171afd94</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Supermecado Souza</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-12-24T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>37e8d74b-72e8-4cd4-9211-489f9c392d77</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>840ff295-0ce2-455c-8dbd-385987b9d8bf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chiquinho</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-05-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ececcf03-eca1-4c36-a48a-6f6f36c632da</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>c9be4f97-a342-4df0-9071-be01d10672e4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>e49d2b9f-1f71-4567-8b49-c9ebc7324220</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sonho de Valsa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8022ba21-8da9-4b42-bbd0-8b3b99016b4b</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>560eb5c1-7264-45a6-9488-01ba9ca08d13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FARDO - Coca Cola 310ml</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>208.86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0acf29f6-9047-4841-98ec-d0f9e7922280</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>a4c5da9d-dc0d-487f-96c2-bf38eb82ec55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FARDO - Coca ZERO 310ml</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>104.43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ec848623-403d-48ab-b0c3-16f237a47125</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>668e22c8-159a-4eec-a50e-d9c1fd8dff41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FARDO - Sprite ZERO 310ml</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ebc97004-f913-4a5b-b4c2-82084697c396</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>869e81e6-1514-4ed4-bfcf-a8c8200c706f</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FARDO - Sprite 310ml</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3d631e6d-486e-40b5-b20f-6af997a23ffc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8438dd55-7263-4c15-8b2d-02073e14ce37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FARDO - Fanta Uva 310ml</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0fab5f47-dfd6-4e75-a186-bee45a138e88</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9eeccb6a-a248-48c6-84a5-7ee09a22c063</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FARDO - Fanta Guaraná 310ml</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5fe0ef67-cc8d-4492-8626-38c33b58b6dc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>b2f54484-f9e3-43ad-ad7f-4bb183d890ec</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FARDO - Schweppes 310ml</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>9313dbf0-d6ec-44d6-84dd-63d1a20180c7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0fa4b6c7-7135-4242-9d79-25bea5ddd85a</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FARDO - Kuat 310ml</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>69.62</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c8718ebe-8fae-45bd-9e32-38f8b59e00e9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>e1dd5620-613f-408b-9a7a-11aafebf2fbd</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FARDO - Água 500ml</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>d05a5363-1650-4d3e-a1ab-497e6f581942</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>b190ac3a-cfc0-4fe1-b071-562084a8b7be</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FARDO - Água c/ Gás 500ml</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>179ac7b7-eaaa-4c4c-ab7d-490d59bcb2d1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14ce42df-e6aa-4e12-b947-ade8d4a24771</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FARDO - Kapo de Morango 200ml</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3dbba142-c49a-46d6-a590-65e95bf32a8b</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2817b18d-3478-4a80-bf61-8e08abcd54bf</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FARDO - Kapo de Uva 200ml</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2d07efc2-1cef-4107-a0f6-369fc103795a</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1f875b30-5d0f-424d-899c-7f5b9741911e</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Coca Cola (Uberlandia Refresco)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>89ef6215-e97e-4b6b-b247-a09a4d2b8aa1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FARDO - Sprite Lemon 500ml</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>34.32</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34.32</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ed1b5dff-e90c-4644-8192-f8cf54fb516b</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>90fcd7d2-7030-4c78-8330-f40d80e3c073</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hamburguer 130g</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ea5bca52-da7a-40c6-ac29-dbdc0bbb86d6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>fe7c27b2-97b7-49aa-9c75-296e4d156b0a</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pão</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6d4202b4-32b8-4628-ae81-a095189bafcb</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6f5c5004-a898-4c80-a280-3a0a8537fb78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Queijo Cheddar</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>94</v>
+      </c>
+      <c r="I21" t="n">
+        <v>94</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>30c7ed31-89f4-4b7d-b74d-2ca2c9e1fe63</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0406e9d1-be76-4564-900a-a704691ba4ac</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Saco Kraft P</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>d2407bcf-25c4-4f58-a7bc-a7fa574281d0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>49c43a0d-f578-42bd-a348-691fce748f89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Papel Food</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>34</v>
+      </c>
+      <c r="I23" t="n">
+        <v>34</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07a6afa1-697f-47c0-a524-bddbbd3718e9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>fa383b74-15da-4311-9c66-6b9dc92a643d</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sache Ketchup DAJUDA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7159436c-2278-477c-b4c0-4a0cf5cd8d2a</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4de54816-b57d-476d-b758-4b8816f2cc8f</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sache Maionese DAJUDA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>17</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>80c92770-215a-4f7c-8809-6e42668525e4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>40cff318-7264-4eeb-a79c-191b5dda5498</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Oleo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3e217b58-59f3-408f-bd75-66aef3fac5b8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21e10090-5dd0-44de-80fc-d7dade1fec08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cebola</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2af6c5b5-190e-492a-89e2-63654891eeeb</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>41084861-099d-42c4-8259-59e22eddd52b</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Supermecado BH</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cbd69922-d8c2-40cd-b18e-40f21e361255</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ovo</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>un</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17</v>
+      </c>
+      <c r="I28" t="n">
+        <v>17</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:00:00+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>b9197304-453d-4025-ad1b-4dc3325dd0d8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Addad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>proprietario</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:08.501819+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0ca60eb5-1507-4a5f-9daf-27084f7bc796</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>teste_admin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:23:23.693119+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6eaf6cbe-b6e6-4c12-9ed3-663a1981c51f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_admin_905899</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:58:19.359122+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8bbbc174-2515-4c76-9bff-1e79a24a1158</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-09T13:05:16.633991+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>afe17ae2-42d5-486b-ac64-3cabf5714450</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-10T13:28:24.296272+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3f5944a9-5ebb-4f6f-a65a-96337185c350</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test_hash</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>observador</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-10T13:46:32.417213+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6859a6d2-4ab9-4535-98ba-c09e7bfcfc27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sanduíches</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.418991+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>22f82fb2-510a-45f1-a917-57a4267bd62a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.514817+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6e568848-2b75-4d3f-9575-ad0c73da8143</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pizzas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.515784+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c6d46061-abce-43fd-ac53-2335ab166894</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Porções</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.516794+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fa2aab84-670a-435d-9b49-f2bc54c56b50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sobremesas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.517863+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7e2f2381-c469-484a-848e-e73bbf85870e</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adicionais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:22:34.518901+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dd4afaeb-6aad-42bd-a1fb-407e802f008e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Receitas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:08:58.606718+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18a9b75c-3060-4279-b51a-6e71f4ab350a</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acompanhamentos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-08T18:27:55.986055+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>98619d04-396a-42dd-8a3f-964d46e8ca1b</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-01-09T13:46:07.694079+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>36b3a47e-b3c1-4fb7-87b5-0adb15a44c82</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Insumo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:32:37.618491+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9b5ecb3f-bbce-4a43-94b0-a54be21a05fe</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Embalagem</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-09T14:33:42.852777+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>